--- a/Project/2017-08-10.会员营销发卷逻辑/20170814会员营销发券逻辑开发.xlsx
+++ b/Project/2017-08-10.会员营销发卷逻辑/20170814会员营销发券逻辑开发.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>大模块</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -482,15 +482,6 @@
     <t>OPER_MBR_REG_WITHOUT_ORDER</t>
   </si>
   <si>
-    <t>OPER_MBR_FITST_ORDER_15DAYS</t>
-  </si>
-  <si>
-    <t>OPER_MBR_SECOND_ORDER_20DAYS</t>
-  </si>
-  <si>
-    <t>OPER_MBR_THIRD_ORDER_30DAYS</t>
-  </si>
-  <si>
     <t>OPER_MBR_THIRD_ORDER_CAL_MONTH</t>
   </si>
   <si>
@@ -501,22 +492,40 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每日9:30</t>
-  </si>
-  <si>
-    <t>每日9:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日9:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月7日9:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月15日9:30</t>
+    <t>OPER_MBR_ORDER_RETAIN_PUSH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日8:50</t>
+  </si>
+  <si>
+    <t>每日8:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月7日8:50</t>
+  </si>
+  <si>
+    <t>每月7日8:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日8:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月7日8:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月15日8:50</t>
+  </si>
+  <si>
+    <t>每月15日8:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月15日8:50</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,49 +635,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,30 +965,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="10.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="17" customWidth="1"/>
-    <col min="14" max="14" width="54.625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="19.25" style="17" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="10.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="54.625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1005,7 +1017,7 @@
         <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1032,837 +1044,853 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="4">
+        <v>76</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="K18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="4">
         <v>24</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
+      <c r="M18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="4">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="4">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="K22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="6">
-        <v>76</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="6">
-        <v>24</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="6">
-        <v>12</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="6">
-        <v>12</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="6">
-        <v>3</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="L8:L16"/>
+    <mergeCell ref="N8:N16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="N23:N26"/>
@@ -1873,22 +1901,6 @@
     <mergeCell ref="N17:N22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="L8:L16"/>
-    <mergeCell ref="N8:N16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
